--- a/Michigan Covid19 Tracker 301520.xlsx
+++ b/Michigan Covid19 Tracker 301520.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacData/Users/RDT1/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDF428E-E142-2145-9390-B63C621F8F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3FEA81-5A57-D946-A303-0282740C47C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="15360" xr2:uid="{37D8E4B2-2A40-1E49-9F24-F0D9EBAB6DE3}"/>
   </bookViews>
@@ -36,22 +36,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>https://www.oakgov.com/health/information/covid-19/Pages/default.aspx</t>
   </si>
   <si>
     <t>https://www.michigan.gov/coronavirus</t>
-  </si>
-  <si>
-    <t>Daily Growth Rate</t>
-  </si>
-  <si>
-    <t>Cuml Growth Rate</t>
-  </si>
-  <si>
-    <t>Total Positive Cases</t>
   </si>
   <si>
     <t>Days</t>
@@ -69,7 +57,20 @@
     <t>Michigan Case Count</t>
   </si>
   <si>
-    <t>Case Growth Rate Scenarios</t>
+    <t>Daily Case Growth Rate Multiplier Scenarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Daily Growth Rate Multipler</t>
+  </si>
+  <si>
+    <t>Cuml Growth Rate Multipler</t>
+  </si>
+  <si>
+    <t>Total 
+Cuml Positive Cases</t>
   </si>
 </sst>
 </file>
@@ -185,12 +186,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -222,13 +223,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -298,12 +310,22 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -319,7 +341,9 @@
     <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -361,10 +385,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F54A64-4C12-D646-8475-F4A169A85B08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D135EB64-3ABF-F645-8FCA-467F21877108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -690,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA23B903-2543-2F47-BCA6-1BBD6579E86D}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection sqref="A1:K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,66 +730,66 @@
     <col min="14" max="14" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+    </row>
+    <row r="6" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="21">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G6" s="5">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="H6" s="6">
-        <v>1.75</v>
+        <v>1.415</v>
       </c>
       <c r="I6" s="7">
         <v>2</v>
@@ -777,9 +801,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="14">
@@ -807,10 +831,10 @@
       </c>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <f>A7+1</f>
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B8" s="9">
         <v>1</v>
@@ -826,38 +850,35 @@
         <f t="shared" ref="E8:E11" si="0">IF(C8&gt;0,(C8/C$7)^(1/B8),"-")</f>
         <v>2</v>
       </c>
-      <c r="F8" s="15">
-        <f t="shared" ref="F8:J23" si="1">F7*F$6</f>
-        <v>1.25</v>
-      </c>
-      <c r="G8" s="15">
+      <c r="F8" s="15" t="str">
+        <f>IF($C9&gt;0,"",IF($C8&gt;0,$C8,F7*F$6))</f>
+        <v/>
+      </c>
+      <c r="G8" s="15" t="str">
+        <f t="shared" ref="G8:K10" si="1">IF($C9&gt;0,"",IF($C8&gt;0,$C8,G7*G$6))</f>
+        <v/>
+      </c>
+      <c r="H8" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="H8" s="15">
+        <v/>
+      </c>
+      <c r="I8" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="I8" s="15">
+        <v/>
+      </c>
+      <c r="J8" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J8" s="15">
+        <v/>
+      </c>
+      <c r="K8" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>2.25</v>
-      </c>
-      <c r="K8" s="15">
-        <f>K7*K$6</f>
-        <v>2.5</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
-        <f t="shared" ref="A9:A28" si="2">A8+1</f>
-        <v>43903</v>
+        <f t="shared" ref="A9:A36" si="2">A8+1</f>
+        <v>43902</v>
       </c>
       <c r="B9" s="9">
         <f>B8+1</f>
@@ -874,84 +895,84 @@
         <f t="shared" si="0"/>
         <v>3.4641016151377544</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="15" t="str">
+        <f>IF($C10&gt;0,"",IF($C9&gt;0,$C9,F8*F$6))</f>
+        <v/>
+      </c>
+      <c r="G9" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
-      </c>
-      <c r="G9" s="15">
+        <v/>
+      </c>
+      <c r="H9" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>2.25</v>
-      </c>
-      <c r="H9" s="15">
+        <v/>
+      </c>
+      <c r="I9" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>3.0625</v>
-      </c>
-      <c r="I9" s="15">
+        <v/>
+      </c>
+      <c r="J9" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J9" s="15">
+        <v/>
+      </c>
+      <c r="K9" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>5.0625</v>
-      </c>
-      <c r="K9" s="15">
-        <f t="shared" ref="K9:K26" si="4">K8*K$6</f>
-        <v>6.25</v>
+        <v/>
       </c>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
-        <f t="shared" si="2"/>
-        <v>43904</v>
-      </c>
-      <c r="B10" s="10">
-        <f t="shared" ref="B10:B28" si="5">B9+1</f>
+    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <f t="shared" si="2"/>
+        <v>43903</v>
+      </c>
+      <c r="B10" s="26">
+        <f t="shared" ref="B10:B36" si="4">B9+1</f>
         <v>3</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="27">
         <v>26</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="28">
         <f t="shared" si="3"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="29">
         <f t="shared" si="0"/>
         <v>2.9624960684073702</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="15" t="str">
+        <f>IF($C11&gt;0,"",IF($C10&gt;0,$C10,F9*F$6))</f>
+        <v/>
+      </c>
+      <c r="G10" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>1.953125</v>
-      </c>
-      <c r="G10" s="23">
+        <v/>
+      </c>
+      <c r="H10" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>3.375</v>
-      </c>
-      <c r="H10" s="23">
+        <v/>
+      </c>
+      <c r="I10" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>5.359375</v>
-      </c>
-      <c r="I10" s="23">
+        <v/>
+      </c>
+      <c r="J10" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="J10" s="23">
+        <v/>
+      </c>
+      <c r="K10" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>11.390625</v>
-      </c>
-      <c r="K10" s="23">
-        <f t="shared" si="4"/>
-        <v>15.625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24">
         <f t="shared" si="2"/>
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B11" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C11" s="16">
@@ -965,128 +986,130 @@
         <f t="shared" si="0"/>
         <v>2.3967817269284302</v>
       </c>
-      <c r="F11" s="23">
-        <f t="shared" si="1"/>
-        <v>2.44140625</v>
-      </c>
-      <c r="G11" s="23">
-        <f t="shared" si="1"/>
-        <v>5.0625</v>
-      </c>
-      <c r="H11" s="23">
-        <f t="shared" si="1"/>
-        <v>9.37890625</v>
-      </c>
-      <c r="I11" s="23">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="J11" s="23">
-        <f t="shared" si="1"/>
-        <v>25.62890625</v>
-      </c>
-      <c r="K11" s="23">
-        <f t="shared" si="4"/>
-        <v>39.0625</v>
+      <c r="F11" s="23" t="str">
+        <f>IF(C12&gt;0,"",IF($C11&gt;0,$C11,F10*F$6))</f>
+        <v/>
+      </c>
+      <c r="G11" s="23" t="str">
+        <f t="shared" ref="G11:K11" si="5">IF(D12&gt;0,"",IF($C11&gt;0,$C11,G10*G$6))</f>
+        <v/>
+      </c>
+      <c r="H11" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I11" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J11" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K11" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
-        <f t="shared" si="2"/>
-        <v>43906</v>
-      </c>
-      <c r="B12" s="9">
-        <f t="shared" si="5"/>
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
+        <f t="shared" si="2"/>
+        <v>43905</v>
+      </c>
+      <c r="B12" s="10">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="16">
         <v>53</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="20">
         <f t="shared" si="3"/>
         <v>1.606060606060606</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="18">
         <f>IF(C12&gt;0,(C12/C$7)^(1/B12),"-")</f>
         <v>2.2123568222761167</v>
       </c>
-      <c r="F12" s="15">
-        <f t="shared" si="1"/>
-        <v>3.0517578125</v>
-      </c>
-      <c r="G12" s="15">
-        <f t="shared" si="1"/>
-        <v>7.59375</v>
-      </c>
-      <c r="H12" s="15">
-        <f t="shared" si="1"/>
-        <v>16.4130859375</v>
-      </c>
-      <c r="I12" s="15">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="J12" s="15">
-        <f t="shared" si="1"/>
-        <v>57.6650390625</v>
-      </c>
-      <c r="K12" s="15">
-        <f t="shared" si="4"/>
-        <v>97.65625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="23" t="str">
+        <f>IF($C13&gt;0,"",IF($C12&gt;0,$C12,F11*F$6))</f>
+        <v/>
+      </c>
+      <c r="G12" s="23" t="str">
+        <f t="shared" ref="G12:K13" si="6">IF($C13&gt;0,"",IF($C12&gt;0,$C12,G11*G$6))</f>
+        <v/>
+      </c>
+      <c r="H12" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I12" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J12" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K12" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <f t="shared" si="2"/>
+        <v>43906</v>
+      </c>
+      <c r="B13" s="9">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="14">
+        <v>65</v>
+      </c>
+      <c r="D13" s="19">
+        <f t="shared" si="3"/>
+        <v>1.2264150943396226</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" ref="E13:E28" si="7">IF(C13&gt;0,(C13/C$7)^(1/B13),"-")</f>
+        <v>2.0051747451504212</v>
+      </c>
+      <c r="F13" s="15">
+        <f>IF($C14&gt;0,"",IF($C13&gt;0,$C13,F12*F$6))</f>
+        <v>65</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="K13" s="15">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <f t="shared" si="2"/>
         <v>43907</v>
       </c>
-      <c r="B13" s="9">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="E13" s="17" t="str">
-        <f t="shared" ref="E13:E28" si="6">IF(C13&gt;0,(C13/C$7)^(1/B13),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F13" s="15">
-        <f t="shared" si="1"/>
-        <v>3.814697265625</v>
-      </c>
-      <c r="G13" s="15">
-        <f t="shared" si="1"/>
-        <v>11.390625</v>
-      </c>
-      <c r="H13" s="15">
-        <f t="shared" si="1"/>
-        <v>28.722900390625</v>
-      </c>
-      <c r="I13" s="15">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="J13" s="15">
-        <f t="shared" si="1"/>
-        <v>129.746337890625</v>
-      </c>
-      <c r="K13" s="15">
-        <f t="shared" si="4"/>
-        <v>244.140625</v>
-      </c>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <f t="shared" si="2"/>
-        <v>43908</v>
-      </c>
       <c r="B14" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C14" s="14"/>
@@ -1095,42 +1118,42 @@
         <v>-</v>
       </c>
       <c r="E14" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="F14" s="15">
-        <f t="shared" si="1"/>
-        <v>4.76837158203125</v>
+        <f t="shared" ref="F14:F36" si="8">IF($C15&gt;0,"",IF($C14&gt;0,$C14,F13*F$6))</f>
+        <v>81.900000000000006</v>
       </c>
       <c r="G14" s="15">
-        <f t="shared" si="1"/>
-        <v>17.0859375</v>
+        <f t="shared" ref="G14:G36" si="9">IF($C15&gt;0,"",IF($C14&gt;0,$C14,G13*G$6))</f>
+        <v>85.8</v>
       </c>
       <c r="H14" s="15">
-        <f t="shared" si="1"/>
-        <v>50.26507568359375</v>
+        <f t="shared" ref="H14:H36" si="10">IF($C15&gt;0,"",IF($C14&gt;0,$C14,H13*H$6))</f>
+        <v>91.975000000000009</v>
       </c>
       <c r="I14" s="15">
-        <f t="shared" si="1"/>
-        <v>128</v>
+        <f t="shared" ref="I14:I36" si="11">IF($C15&gt;0,"",IF($C14&gt;0,$C14,I13*I$6))</f>
+        <v>130</v>
       </c>
       <c r="J14" s="15">
-        <f t="shared" si="1"/>
-        <v>291.92926025390625</v>
+        <f t="shared" ref="J14:J36" si="12">IF($C15&gt;0,"",IF($C14&gt;0,$C14,J13*J$6))</f>
+        <v>146.25</v>
       </c>
       <c r="K14" s="15">
-        <f t="shared" si="4"/>
-        <v>610.3515625</v>
+        <f t="shared" ref="K14:K36" si="13">IF($C15&gt;0,"",IF($C14&gt;0,$C14,K13*K$6))</f>
+        <v>162.5</v>
       </c>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <f t="shared" si="2"/>
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B15" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="C15" s="14"/>
@@ -1139,42 +1162,42 @@
         <v>-</v>
       </c>
       <c r="E15" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="F15" s="15">
-        <f t="shared" si="1"/>
-        <v>5.9604644775390625</v>
+        <f t="shared" si="8"/>
+        <v>103.194</v>
       </c>
       <c r="G15" s="15">
-        <f t="shared" si="1"/>
-        <v>25.62890625</v>
+        <f t="shared" si="9"/>
+        <v>113.256</v>
       </c>
       <c r="H15" s="15">
-        <f t="shared" si="1"/>
-        <v>87.963882446289062</v>
+        <f t="shared" si="10"/>
+        <v>130.14462500000002</v>
       </c>
       <c r="I15" s="15">
-        <f t="shared" si="1"/>
-        <v>256</v>
+        <f t="shared" si="11"/>
+        <v>260</v>
       </c>
       <c r="J15" s="15">
-        <f t="shared" si="1"/>
-        <v>656.84083557128906</v>
+        <f t="shared" si="12"/>
+        <v>329.0625</v>
       </c>
       <c r="K15" s="15">
-        <f t="shared" si="4"/>
-        <v>1525.87890625</v>
+        <f t="shared" si="13"/>
+        <v>406.25</v>
       </c>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <f t="shared" si="2"/>
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B16" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C16" s="14"/>
@@ -1183,86 +1206,86 @@
         <v>-</v>
       </c>
       <c r="E16" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="F16" s="15">
-        <f t="shared" si="1"/>
-        <v>7.4505805969238281</v>
+        <f t="shared" si="8"/>
+        <v>130.02444</v>
       </c>
       <c r="G16" s="15">
-        <f t="shared" si="1"/>
-        <v>38.443359375</v>
+        <f t="shared" si="9"/>
+        <v>149.49791999999999</v>
       </c>
       <c r="H16" s="15">
-        <f t="shared" si="1"/>
-        <v>153.93679428100586</v>
+        <f t="shared" si="10"/>
+        <v>184.15464437500003</v>
       </c>
       <c r="I16" s="15">
-        <f t="shared" si="1"/>
-        <v>512</v>
+        <f t="shared" si="11"/>
+        <v>520</v>
       </c>
       <c r="J16" s="15">
-        <f t="shared" si="1"/>
-        <v>1477.8918800354004</v>
+        <f t="shared" si="12"/>
+        <v>740.390625</v>
       </c>
       <c r="K16" s="15">
-        <f t="shared" si="4"/>
-        <v>3814.697265625</v>
+        <f t="shared" si="13"/>
+        <v>1015.625</v>
       </c>
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
-        <f t="shared" si="2"/>
-        <v>43911</v>
-      </c>
-      <c r="B17" s="10">
-        <f t="shared" si="5"/>
+      <c r="A17" s="13">
+        <f t="shared" si="2"/>
+        <v>43910</v>
+      </c>
+      <c r="B17" s="26">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="20" t="str">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="E17" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="F17" s="23">
-        <f t="shared" si="1"/>
-        <v>9.3132257461547852</v>
-      </c>
-      <c r="G17" s="23">
-        <f t="shared" si="1"/>
-        <v>57.6650390625</v>
-      </c>
-      <c r="H17" s="23">
-        <f t="shared" si="1"/>
-        <v>269.38938999176025</v>
-      </c>
-      <c r="I17" s="23">
-        <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-      <c r="J17" s="23">
-        <f t="shared" si="1"/>
-        <v>3325.2567300796509</v>
-      </c>
-      <c r="K17" s="23">
-        <f t="shared" si="4"/>
-        <v>9536.7431640625</v>
+      <c r="E17" s="29" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="F17" s="30">
+        <f t="shared" si="8"/>
+        <v>163.8307944</v>
+      </c>
+      <c r="G17" s="30">
+        <f t="shared" si="9"/>
+        <v>197.33725440000001</v>
+      </c>
+      <c r="H17" s="30">
+        <f t="shared" si="10"/>
+        <v>260.57882179062506</v>
+      </c>
+      <c r="I17" s="30">
+        <f t="shared" si="11"/>
+        <v>1040</v>
+      </c>
+      <c r="J17" s="30">
+        <f t="shared" si="12"/>
+        <v>1665.87890625</v>
+      </c>
+      <c r="K17" s="30">
+        <f t="shared" si="13"/>
+        <v>2539.0625</v>
       </c>
       <c r="N17" s="11"/>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
         <f t="shared" si="2"/>
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C18" s="16"/>
@@ -1271,86 +1294,86 @@
         <v>-</v>
       </c>
       <c r="E18" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="F18" s="23">
-        <f t="shared" si="1"/>
-        <v>11.641532182693481</v>
+        <f t="shared" si="8"/>
+        <v>206.42680094400001</v>
       </c>
       <c r="G18" s="23">
-        <f t="shared" si="1"/>
-        <v>86.49755859375</v>
+        <f t="shared" si="9"/>
+        <v>260.48517580800001</v>
       </c>
       <c r="H18" s="23">
-        <f t="shared" si="1"/>
-        <v>471.43143248558044</v>
+        <f t="shared" si="10"/>
+        <v>368.71903283373445</v>
       </c>
       <c r="I18" s="23">
-        <f t="shared" si="1"/>
-        <v>2048</v>
+        <f t="shared" si="11"/>
+        <v>2080</v>
       </c>
       <c r="J18" s="23">
-        <f t="shared" si="1"/>
-        <v>7481.8276426792145</v>
+        <f t="shared" si="12"/>
+        <v>3748.2275390625</v>
       </c>
       <c r="K18" s="23">
-        <f t="shared" si="4"/>
-        <v>23841.85791015625</v>
+        <f t="shared" si="13"/>
+        <v>6347.65625</v>
       </c>
       <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <f t="shared" si="2"/>
-        <v>43913</v>
-      </c>
-      <c r="B19" s="9">
-        <f t="shared" si="5"/>
+      <c r="A19" s="24">
+        <f t="shared" si="2"/>
+        <v>43912</v>
+      </c>
+      <c r="B19" s="10">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="19" t="str">
+      <c r="C19" s="16"/>
+      <c r="D19" s="20" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="E19" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="F19" s="15">
-        <f t="shared" si="1"/>
-        <v>14.551915228366852</v>
-      </c>
-      <c r="G19" s="15">
-        <f t="shared" si="1"/>
-        <v>129.746337890625</v>
-      </c>
-      <c r="H19" s="15">
-        <f t="shared" si="1"/>
-        <v>825.00500684976578</v>
-      </c>
-      <c r="I19" s="15">
-        <f t="shared" si="1"/>
-        <v>4096</v>
-      </c>
-      <c r="J19" s="15">
-        <f t="shared" si="1"/>
-        <v>16834.112196028233</v>
-      </c>
-      <c r="K19" s="15">
-        <f t="shared" si="4"/>
-        <v>59604.644775390625</v>
+      <c r="E19" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="F19" s="23">
+        <f t="shared" si="8"/>
+        <v>260.09776918943999</v>
+      </c>
+      <c r="G19" s="23">
+        <f t="shared" si="9"/>
+        <v>343.84043206656003</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="10"/>
+        <v>521.73743145973424</v>
+      </c>
+      <c r="I19" s="23">
+        <f t="shared" si="11"/>
+        <v>4160</v>
+      </c>
+      <c r="J19" s="23">
+        <f t="shared" si="12"/>
+        <v>8433.511962890625</v>
+      </c>
+      <c r="K19" s="23">
+        <f t="shared" si="13"/>
+        <v>15869.140625</v>
       </c>
       <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <f t="shared" si="2"/>
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="C20" s="14"/>
@@ -1359,42 +1382,42 @@
         <v>-</v>
       </c>
       <c r="E20" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" si="1"/>
-        <v>18.189894035458565</v>
+        <f t="shared" si="8"/>
+        <v>327.72318917869438</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="1"/>
-        <v>194.6195068359375</v>
+        <f t="shared" si="9"/>
+        <v>453.86937032785926</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="1"/>
-        <v>1443.7587619870901</v>
+        <f t="shared" si="10"/>
+        <v>738.25846551552399</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="1"/>
-        <v>8192</v>
+        <f t="shared" si="11"/>
+        <v>8320</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="1"/>
-        <v>37876.752441063523</v>
+        <f t="shared" si="12"/>
+        <v>18975.401916503906</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="4"/>
-        <v>149011.61193847656</v>
+        <f t="shared" si="13"/>
+        <v>39672.8515625</v>
       </c>
       <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <f t="shared" si="2"/>
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B21" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="C21" s="14"/>
@@ -1403,42 +1426,42 @@
         <v>-</v>
       </c>
       <c r="E21" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" si="1"/>
-        <v>22.737367544323206</v>
+        <f t="shared" si="8"/>
+        <v>412.9312183651549</v>
       </c>
       <c r="G21" s="15">
-        <f t="shared" si="1"/>
-        <v>291.92926025390625</v>
+        <f t="shared" si="9"/>
+        <v>599.10756883277429</v>
       </c>
       <c r="H21" s="15">
-        <f t="shared" si="1"/>
-        <v>2526.5778334774077</v>
+        <f t="shared" si="10"/>
+        <v>1044.6357287044664</v>
       </c>
       <c r="I21" s="15">
-        <f t="shared" si="1"/>
-        <v>16384</v>
+        <f t="shared" si="11"/>
+        <v>16640</v>
       </c>
       <c r="J21" s="15">
-        <f t="shared" si="1"/>
-        <v>85222.692992392927</v>
+        <f t="shared" si="12"/>
+        <v>42694.654312133789</v>
       </c>
       <c r="K21" s="15">
-        <f t="shared" si="4"/>
-        <v>372529.02984619141</v>
+        <f t="shared" si="13"/>
+        <v>99182.12890625</v>
       </c>
       <c r="N21" s="11"/>
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <f t="shared" si="2"/>
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="C22" s="14"/>
@@ -1447,42 +1470,42 @@
         <v>-</v>
       </c>
       <c r="E22" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="F22" s="15">
-        <f t="shared" si="1"/>
-        <v>28.421709430404007</v>
+        <f t="shared" si="8"/>
+        <v>520.29333514009522</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" si="1"/>
-        <v>437.89389038085938</v>
+        <f t="shared" si="9"/>
+        <v>790.82199085926209</v>
       </c>
       <c r="H22" s="15">
-        <f t="shared" si="1"/>
-        <v>4421.5112085854635</v>
+        <f t="shared" si="10"/>
+        <v>1478.1595561168199</v>
       </c>
       <c r="I22" s="15">
-        <f t="shared" si="1"/>
-        <v>32768</v>
+        <f t="shared" si="11"/>
+        <v>33280</v>
       </c>
       <c r="J22" s="15">
-        <f t="shared" si="1"/>
-        <v>191751.05923288409</v>
+        <f t="shared" si="12"/>
+        <v>96062.972202301025</v>
       </c>
       <c r="K22" s="15">
-        <f t="shared" si="4"/>
-        <v>931322.57461547852</v>
+        <f t="shared" si="13"/>
+        <v>247955.322265625</v>
       </c>
       <c r="N22" s="11"/>
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <f t="shared" si="2"/>
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B23" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="C23" s="14"/>
@@ -1491,86 +1514,86 @@
         <v>-</v>
       </c>
       <c r="E23" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="F23" s="15">
-        <f t="shared" si="1"/>
-        <v>35.527136788005009</v>
+        <f t="shared" si="8"/>
+        <v>655.56960227651996</v>
       </c>
       <c r="G23" s="15">
-        <f t="shared" si="1"/>
-        <v>656.84083557128906</v>
+        <f t="shared" si="9"/>
+        <v>1043.8850279342259</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="1"/>
-        <v>7737.6446150245611</v>
+        <f t="shared" si="10"/>
+        <v>2091.5957719053004</v>
       </c>
       <c r="I23" s="15">
-        <f t="shared" si="1"/>
-        <v>65536</v>
+        <f t="shared" si="11"/>
+        <v>66560</v>
       </c>
       <c r="J23" s="15">
-        <f t="shared" si="1"/>
-        <v>431439.8832739892</v>
+        <f t="shared" si="12"/>
+        <v>216141.68745517731</v>
       </c>
       <c r="K23" s="15">
-        <f t="shared" si="4"/>
-        <v>2328306.4365386963</v>
+        <f t="shared" si="13"/>
+        <v>619888.3056640625</v>
       </c>
       <c r="N23" s="11"/>
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24">
-        <f t="shared" si="2"/>
-        <v>43918</v>
-      </c>
-      <c r="B24" s="10">
-        <f t="shared" si="5"/>
+      <c r="A24" s="13">
+        <f t="shared" si="2"/>
+        <v>43917</v>
+      </c>
+      <c r="B24" s="26">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="20" t="str">
+      <c r="C24" s="27"/>
+      <c r="D24" s="28" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="E24" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="F24" s="23">
-        <f t="shared" ref="F24:F26" si="7">F23*F$6</f>
-        <v>44.408920985006262</v>
-      </c>
-      <c r="G24" s="23">
-        <f t="shared" ref="G24:H26" si="8">G23*G$6</f>
-        <v>985.26125335693359</v>
-      </c>
-      <c r="H24" s="23">
+      <c r="E24" s="29" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="F24" s="30">
         <f t="shared" si="8"/>
-        <v>13540.878076292982</v>
-      </c>
-      <c r="I24" s="23">
-        <f t="shared" ref="I24:J26" si="9">I23*I$6</f>
-        <v>131072</v>
-      </c>
-      <c r="J24" s="23">
+        <v>826.01769886841521</v>
+      </c>
+      <c r="G24" s="30">
         <f t="shared" si="9"/>
-        <v>970739.73736647563</v>
-      </c>
-      <c r="K24" s="23">
-        <f t="shared" si="4"/>
-        <v>5820766.0913467407</v>
+        <v>1377.9282368731783</v>
+      </c>
+      <c r="H24" s="30">
+        <f t="shared" si="10"/>
+        <v>2959.6080172460001</v>
+      </c>
+      <c r="I24" s="30">
+        <f t="shared" si="11"/>
+        <v>133120</v>
+      </c>
+      <c r="J24" s="30">
+        <f t="shared" si="12"/>
+        <v>486318.79677414894</v>
+      </c>
+      <c r="K24" s="30">
+        <f t="shared" si="13"/>
+        <v>1549720.7641601562</v>
       </c>
       <c r="N24" s="11"/>
     </row>
     <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24">
         <f t="shared" si="2"/>
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B25" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="C25" s="16"/>
@@ -1579,86 +1602,86 @@
         <v>-</v>
       </c>
       <c r="E25" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="F25" s="23">
+        <f t="shared" si="8"/>
+        <v>1040.7823005742032</v>
+      </c>
+      <c r="G25" s="23">
+        <f t="shared" si="9"/>
+        <v>1818.8652726725954</v>
+      </c>
+      <c r="H25" s="23">
+        <f t="shared" si="10"/>
+        <v>4187.8453444030902</v>
+      </c>
+      <c r="I25" s="23">
+        <f t="shared" si="11"/>
+        <v>266240</v>
+      </c>
+      <c r="J25" s="23">
+        <f t="shared" si="12"/>
+        <v>1094217.2927418351</v>
+      </c>
+      <c r="K25" s="23">
+        <f t="shared" si="13"/>
+        <v>3874301.9104003906</v>
+      </c>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="24">
+        <f t="shared" si="2"/>
+        <v>43919</v>
+      </c>
+      <c r="B26" s="10">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="E26" s="18" t="str">
         <f t="shared" si="7"/>
-        <v>55.511151231257827</v>
-      </c>
-      <c r="G25" s="23">
+        <v>-</v>
+      </c>
+      <c r="F26" s="23">
         <f t="shared" si="8"/>
-        <v>1477.8918800354004</v>
-      </c>
-      <c r="H25" s="23">
-        <f t="shared" si="8"/>
-        <v>23696.536633512718</v>
-      </c>
-      <c r="I25" s="23">
+        <v>1311.385698723496</v>
+      </c>
+      <c r="G26" s="23">
         <f t="shared" si="9"/>
-        <v>262144</v>
-      </c>
-      <c r="J25" s="23">
-        <f t="shared" si="9"/>
-        <v>2184164.4090745701</v>
-      </c>
-      <c r="K25" s="23">
-        <f t="shared" si="4"/>
-        <v>14551915.228366852</v>
-      </c>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
-        <f t="shared" si="2"/>
-        <v>43920</v>
-      </c>
-      <c r="B26" s="9">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="E26" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="F26" s="15">
-        <f t="shared" si="7"/>
-        <v>69.388939039072284</v>
-      </c>
-      <c r="G26" s="15">
-        <f t="shared" si="8"/>
-        <v>2216.8378200531006</v>
-      </c>
-      <c r="H26" s="15">
-        <f t="shared" si="8"/>
-        <v>41468.939108647261</v>
-      </c>
-      <c r="I26" s="15">
-        <f t="shared" si="9"/>
-        <v>524288</v>
-      </c>
-      <c r="J26" s="26">
-        <f t="shared" si="9"/>
-        <v>4914369.9204177829</v>
-      </c>
-      <c r="K26" s="15">
-        <f t="shared" si="4"/>
-        <v>36379788.07091713</v>
+        <v>2400.9021599278262</v>
+      </c>
+      <c r="H26" s="23">
+        <f t="shared" si="10"/>
+        <v>5925.8011623303728</v>
+      </c>
+      <c r="I26" s="23">
+        <f t="shared" si="11"/>
+        <v>532480</v>
+      </c>
+      <c r="J26" s="23">
+        <f t="shared" si="12"/>
+        <v>2461988.908669129</v>
+      </c>
+      <c r="K26" s="23">
+        <f t="shared" si="13"/>
+        <v>9685754.7760009766</v>
       </c>
       <c r="N26" s="11"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <f t="shared" si="2"/>
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B27" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="C27" s="14"/>
@@ -1667,41 +1690,41 @@
         <v>-</v>
       </c>
       <c r="E27" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="F27" s="15">
-        <f t="shared" ref="F27:F28" si="10">F26*F$6</f>
-        <v>86.736173798840355</v>
+        <f t="shared" si="8"/>
+        <v>1652.3459803916051</v>
       </c>
       <c r="G27" s="15">
-        <f t="shared" ref="G27:G28" si="11">G26*G$6</f>
-        <v>3325.2567300796509</v>
+        <f t="shared" si="9"/>
+        <v>3169.1908511047309</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" ref="H27:H28" si="12">H26*H$6</f>
-        <v>72570.643440132699</v>
+        <f t="shared" si="10"/>
+        <v>8385.0086446974783</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" ref="I27:I28" si="13">I26*I$6</f>
-        <v>1048576</v>
-      </c>
-      <c r="J27" s="25">
-        <f t="shared" ref="J27:J28" si="14">J26*J$6</f>
-        <v>11057332.320940012</v>
+        <f t="shared" si="11"/>
+        <v>1064960</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="12"/>
+        <v>5539475.0445055403</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" ref="K27:K28" si="15">K26*K$6</f>
-        <v>90949470.177292824</v>
+        <f t="shared" si="13"/>
+        <v>24214386.940002441</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <f t="shared" si="2"/>
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B28" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="C28" s="14"/>
@@ -1710,32 +1733,369 @@
         <v>-</v>
       </c>
       <c r="E28" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="F28" s="15">
+        <f t="shared" si="8"/>
+        <v>2081.9559352934225</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="9"/>
+        <v>4183.331923458245</v>
+      </c>
+      <c r="H28" s="15">
         <f t="shared" si="10"/>
-        <v>108.42021724855044</v>
-      </c>
-      <c r="G28" s="15">
+        <v>11864.787232246932</v>
+      </c>
+      <c r="I28" s="15">
         <f t="shared" si="11"/>
-        <v>4987.8850951194763</v>
-      </c>
-      <c r="H28" s="15">
+        <v>2129920</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <f t="shared" si="2"/>
+        <v>43922</v>
+      </c>
+      <c r="B29" s="9">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="19" t="str">
+        <f t="shared" ref="D29:D36" si="14">IF(C29&gt;0,C29/C28,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E29" s="17" t="str">
+        <f t="shared" ref="E29:E36" si="15">IF(C29&gt;0,(C29/C$7)^(1/B29),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="8"/>
+        <v>2623.2644784697122</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="9"/>
+        <v>5521.9981389648838</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="10"/>
+        <v>16788.673933629409</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="11"/>
+        <v>4259840</v>
+      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <f t="shared" si="2"/>
+        <v>43923</v>
+      </c>
+      <c r="B30" s="9">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>-</v>
+      </c>
+      <c r="E30" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>-</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="8"/>
+        <v>3305.3132428718372</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="9"/>
+        <v>7289.0375434336465</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="10"/>
+        <v>23755.973616085616</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="11"/>
+        <v>8519680</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <f t="shared" si="2"/>
+        <v>43924</v>
+      </c>
+      <c r="B31" s="9">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>-</v>
+      </c>
+      <c r="E31" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>-</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="8"/>
+        <v>4164.6946860185153</v>
+      </c>
+      <c r="G31" s="15">
+        <f t="shared" si="9"/>
+        <v>9621.5295573324147</v>
+      </c>
+      <c r="H31" s="15">
+        <f t="shared" si="10"/>
+        <v>33614.70266676115</v>
+      </c>
+      <c r="I31" s="15">
+        <f t="shared" si="11"/>
+        <v>17039360</v>
+      </c>
+      <c r="J31" s="15">
         <f t="shared" si="12"/>
-        <v>126998.62602023222</v>
-      </c>
-      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
         <f t="shared" si="13"/>
-        <v>2097152</v>
-      </c>
-      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="24">
+        <f t="shared" si="2"/>
+        <v>43925</v>
+      </c>
+      <c r="B32" s="10">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="20" t="str">
         <f t="shared" si="14"/>
-        <v>24878997.722115029</v>
-      </c>
-      <c r="K28" s="15">
+        <v>-</v>
+      </c>
+      <c r="E32" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>227373675.44323206</v>
+        <v>-</v>
+      </c>
+      <c r="F32" s="23">
+        <f t="shared" si="8"/>
+        <v>5247.5153043833297</v>
+      </c>
+      <c r="G32" s="23">
+        <f t="shared" si="9"/>
+        <v>12700.419015678788</v>
+      </c>
+      <c r="H32" s="23">
+        <f t="shared" si="10"/>
+        <v>47564.804273467031</v>
+      </c>
+      <c r="I32" s="23">
+        <f t="shared" si="11"/>
+        <v>34078720</v>
+      </c>
+      <c r="J32" s="23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="24">
+        <f t="shared" si="2"/>
+        <v>43926</v>
+      </c>
+      <c r="B33" s="10">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="20" t="str">
+        <f t="shared" si="14"/>
+        <v>-</v>
+      </c>
+      <c r="E33" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v>-</v>
+      </c>
+      <c r="F33" s="23">
+        <f t="shared" si="8"/>
+        <v>6611.8692835229958</v>
+      </c>
+      <c r="G33" s="23">
+        <f t="shared" si="9"/>
+        <v>16764.553100696001</v>
+      </c>
+      <c r="H33" s="23">
+        <f t="shared" si="10"/>
+        <v>67304.198046955848</v>
+      </c>
+      <c r="I33" s="23">
+        <f t="shared" si="11"/>
+        <v>68157440</v>
+      </c>
+      <c r="J33" s="23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
+        <f t="shared" si="2"/>
+        <v>43927</v>
+      </c>
+      <c r="B34" s="9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>-</v>
+      </c>
+      <c r="E34" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>-</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="8"/>
+        <v>8330.9552972389756</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="9"/>
+        <v>22129.210092918722</v>
+      </c>
+      <c r="H34" s="15">
+        <f t="shared" si="10"/>
+        <v>95235.440236442533</v>
+      </c>
+      <c r="I34" s="15">
+        <f t="shared" si="11"/>
+        <v>136314880</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
+        <f t="shared" si="2"/>
+        <v>43928</v>
+      </c>
+      <c r="B35" s="9">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>-</v>
+      </c>
+      <c r="E35" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>-</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="8"/>
+        <v>10497.003674521109</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="9"/>
+        <v>29210.557322652716</v>
+      </c>
+      <c r="H35" s="15">
+        <f t="shared" si="10"/>
+        <v>134758.14793456619</v>
+      </c>
+      <c r="I35" s="15">
+        <f t="shared" si="11"/>
+        <v>272629760</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
+        <f t="shared" si="2"/>
+        <v>43929</v>
+      </c>
+      <c r="B36" s="9">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>-</v>
+      </c>
+      <c r="E36" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>-</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="8"/>
+        <v>13226.224629896598</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="9"/>
+        <v>38557.93566590159</v>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="10"/>
+        <v>190682.77932741118</v>
+      </c>
+      <c r="I36" s="15">
+        <f t="shared" si="11"/>
+        <v>545259520</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I37" s="36" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Michigan Covid19 Tracker 301520.xlsx
+++ b/Michigan Covid19 Tracker 301520.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacData/Users/RDT1/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3FEA81-5A57-D946-A303-0282740C47C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205A8851-A79F-C142-B8F8-1A7F275E8053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="15360" xr2:uid="{37D8E4B2-2A40-1E49-9F24-F0D9EBAB6DE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>https://www.oakgov.com/health/information/covid-19/Pages/default.aspx</t>
   </si>
@@ -71,6 +71,12 @@
   <si>
     <t>Total 
 Cuml Positive Cases</t>
+  </si>
+  <si>
+    <t>https://github.com/rtpub/MI-COVID19-Tracker-Xls?fbclid=IwAR1QBEHLmE01AnDZwk3DzI2v6b914DyQzXq3db61EpB9Io-TbFsY0YS5Wi8</t>
+  </si>
+  <si>
+    <t>Public Posting (github)</t>
   </si>
 </sst>
 </file>
@@ -240,7 +246,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -326,6 +332,9 @@
     <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -341,9 +350,7 @@
     <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -714,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA23B903-2543-2F47-BCA6-1BBD6579E86D}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,406 +762,370 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-    </row>
-    <row r="6" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="21">
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="21">
         <v>1.26</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G7" s="5">
         <v>1.32</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H7" s="6">
         <v>1.415</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="7">
         <v>2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J7" s="8">
         <v>2.25</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K7" s="4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>43900</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1</v>
-      </c>
-      <c r="I7" s="15">
-        <v>1</v>
-      </c>
-      <c r="J7" s="15">
-        <v>1</v>
-      </c>
-      <c r="K7" s="15">
-        <v>1</v>
-      </c>
-      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
-        <f>A7+1</f>
-        <v>43901</v>
-      </c>
-      <c r="B8" s="9">
+        <v>43900</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="14">
-        <v>2</v>
-      </c>
-      <c r="D8" s="19">
-        <f>IF(C8&gt;0,C8/C7,"-")</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="17">
-        <f t="shared" ref="E8:E11" si="0">IF(C8&gt;0,(C8/C$7)^(1/B8),"-")</f>
-        <v>2</v>
-      </c>
-      <c r="F8" s="15" t="str">
-        <f>IF($C9&gt;0,"",IF($C8&gt;0,$C8,F7*F$6))</f>
-        <v/>
-      </c>
-      <c r="G8" s="15" t="str">
-        <f t="shared" ref="G8:K10" si="1">IF($C9&gt;0,"",IF($C8&gt;0,$C8,G7*G$6))</f>
-        <v/>
-      </c>
-      <c r="H8" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I8" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J8" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K8" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1</v>
+      </c>
+      <c r="J8" s="15">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15">
+        <v>1</v>
+      </c>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
-        <f t="shared" ref="A9:A36" si="2">A8+1</f>
+        <f>A8+1</f>
+        <v>43901</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
+      <c r="D9" s="19">
+        <f>IF(C9&gt;0,C9/C8,"-")</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" ref="E9:E12" si="0">IF(C9&gt;0,(C9/C$8)^(1/B9),"-")</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="15" t="str">
+        <f>IF($C10&gt;0,"",IF($C9&gt;0,$C9,F8*F$7))</f>
+        <v/>
+      </c>
+      <c r="G9" s="15" t="str">
+        <f t="shared" ref="G9:K11" si="1">IF($C10&gt;0,"",IF($C9&gt;0,$C9,G8*G$7))</f>
+        <v/>
+      </c>
+      <c r="H9" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I9" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J9" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K9" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <f t="shared" ref="A10:A37" si="2">A9+1</f>
         <v>43902</v>
       </c>
-      <c r="B9" s="9">
-        <f>B8+1</f>
+      <c r="B10" s="9">
+        <f>B9+1</f>
         <v>2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C10" s="14">
         <v>12</v>
       </c>
-      <c r="D9" s="19">
-        <f t="shared" ref="D9:D28" si="3">IF(C9&gt;0,C9/C8,"-")</f>
+      <c r="D10" s="19">
+        <f t="shared" ref="D10:D29" si="3">IF(C10&gt;0,C10/C9,"-")</f>
         <v>6</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E10" s="17">
         <f t="shared" si="0"/>
         <v>3.4641016151377544</v>
       </c>
-      <c r="F9" s="15" t="str">
-        <f>IF($C10&gt;0,"",IF($C9&gt;0,$C9,F8*F$6))</f>
-        <v/>
-      </c>
-      <c r="G9" s="15" t="str">
+      <c r="F10" s="15" t="str">
+        <f>IF($C11&gt;0,"",IF($C10&gt;0,$C10,F9*F$7))</f>
+        <v/>
+      </c>
+      <c r="G10" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H9" s="15" t="str">
+      <c r="H10" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I9" s="15" t="str">
+      <c r="I10" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J9" s="15" t="str">
+      <c r="J10" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K9" s="15" t="str">
+      <c r="K10" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
         <f t="shared" si="2"/>
         <v>43903</v>
       </c>
-      <c r="B10" s="26">
-        <f t="shared" ref="B10:B36" si="4">B9+1</f>
+      <c r="B11" s="26">
+        <f t="shared" ref="B11:B37" si="4">B10+1</f>
         <v>3</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C11" s="27">
         <v>26</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D11" s="28">
         <f t="shared" si="3"/>
         <v>2.1666666666666665</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E11" s="29">
         <f t="shared" si="0"/>
         <v>2.9624960684073702</v>
       </c>
-      <c r="F10" s="15" t="str">
-        <f>IF($C11&gt;0,"",IF($C10&gt;0,$C10,F9*F$6))</f>
-        <v/>
-      </c>
-      <c r="G10" s="15" t="str">
+      <c r="F11" s="15" t="str">
+        <f>IF($C12&gt;0,"",IF($C11&gt;0,$C11,F10*F$7))</f>
+        <v/>
+      </c>
+      <c r="G11" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H10" s="15" t="str">
+      <c r="H11" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I10" s="15" t="str">
+      <c r="I11" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J10" s="15" t="str">
+      <c r="J11" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K10" s="15" t="str">
+      <c r="K11" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24">
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
         <f t="shared" si="2"/>
         <v>43904</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B12" s="10">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C12" s="16">
         <v>33</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D12" s="20">
         <f t="shared" si="3"/>
         <v>1.2692307692307692</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E12" s="18">
         <f t="shared" si="0"/>
         <v>2.3967817269284302</v>
       </c>
-      <c r="F11" s="23" t="str">
-        <f>IF(C12&gt;0,"",IF($C11&gt;0,$C11,F10*F$6))</f>
-        <v/>
-      </c>
-      <c r="G11" s="23" t="str">
-        <f t="shared" ref="G11:K11" si="5">IF(D12&gt;0,"",IF($C11&gt;0,$C11,G10*G$6))</f>
-        <v/>
-      </c>
-      <c r="H11" s="23" t="str">
+      <c r="F12" s="23" t="str">
+        <f>IF(C13&gt;0,"",IF($C12&gt;0,$C12,F11*F$7))</f>
+        <v/>
+      </c>
+      <c r="G12" s="23" t="str">
+        <f t="shared" ref="G12:K12" si="5">IF(D13&gt;0,"",IF($C12&gt;0,$C12,G11*G$7))</f>
+        <v/>
+      </c>
+      <c r="H12" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I11" s="23" t="str">
+      <c r="I12" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J11" s="23" t="str">
+      <c r="J12" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K11" s="23" t="str">
+      <c r="K12" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24">
         <f t="shared" si="2"/>
         <v>43905</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B13" s="10">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C13" s="16">
         <v>53</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D13" s="20">
         <f t="shared" si="3"/>
         <v>1.606060606060606</v>
       </c>
-      <c r="E12" s="18">
-        <f>IF(C12&gt;0,(C12/C$7)^(1/B12),"-")</f>
+      <c r="E13" s="18">
+        <f>IF(C13&gt;0,(C13/C$8)^(1/B13),"-")</f>
         <v>2.2123568222761167</v>
       </c>
-      <c r="F12" s="23" t="str">
-        <f>IF($C13&gt;0,"",IF($C12&gt;0,$C12,F11*F$6))</f>
-        <v/>
-      </c>
-      <c r="G12" s="23" t="str">
-        <f t="shared" ref="G12:K13" si="6">IF($C13&gt;0,"",IF($C12&gt;0,$C12,G11*G$6))</f>
-        <v/>
-      </c>
-      <c r="H12" s="23" t="str">
+      <c r="F13" s="23" t="str">
+        <f>IF($C14&gt;0,"",IF($C13&gt;0,$C13,F12*F$7))</f>
+        <v/>
+      </c>
+      <c r="G13" s="23" t="str">
+        <f t="shared" ref="G13:K14" si="6">IF($C14&gt;0,"",IF($C13&gt;0,$C13,G12*G$7))</f>
+        <v/>
+      </c>
+      <c r="H13" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I12" s="23" t="str">
+      <c r="I13" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J12" s="23" t="str">
+      <c r="J13" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K12" s="23" t="str">
+      <c r="K13" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
         <f t="shared" si="2"/>
         <v>43906</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B14" s="9">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C14" s="14">
         <v>65</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D14" s="19">
         <f t="shared" si="3"/>
         <v>1.2264150943396226</v>
       </c>
-      <c r="E13" s="17">
-        <f t="shared" ref="E13:E28" si="7">IF(C13&gt;0,(C13/C$7)^(1/B13),"-")</f>
+      <c r="E14" s="17">
+        <f t="shared" ref="E14:E29" si="7">IF(C14&gt;0,(C14/C$8)^(1/B14),"-")</f>
         <v>2.0051747451504212</v>
       </c>
-      <c r="F13" s="15">
-        <f>IF($C14&gt;0,"",IF($C13&gt;0,$C13,F12*F$6))</f>
+      <c r="F14" s="15">
+        <f>IF($C15&gt;0,"",IF($C14&gt;0,$C14,F13*F$7))</f>
         <v>65</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G14" s="15">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H14" s="15">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I14" s="15">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J14" s="15">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K14" s="15">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <f t="shared" si="2"/>
-        <v>43907</v>
-      </c>
-      <c r="B14" s="9">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="E14" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="F14" s="15">
-        <f t="shared" ref="F14:F36" si="8">IF($C15&gt;0,"",IF($C14&gt;0,$C14,F13*F$6))</f>
-        <v>81.900000000000006</v>
-      </c>
-      <c r="G14" s="15">
-        <f t="shared" ref="G14:G36" si="9">IF($C15&gt;0,"",IF($C14&gt;0,$C14,G13*G$6))</f>
-        <v>85.8</v>
-      </c>
-      <c r="H14" s="15">
-        <f t="shared" ref="H14:H36" si="10">IF($C15&gt;0,"",IF($C14&gt;0,$C14,H13*H$6))</f>
-        <v>91.975000000000009</v>
-      </c>
-      <c r="I14" s="15">
-        <f t="shared" ref="I14:I36" si="11">IF($C15&gt;0,"",IF($C14&gt;0,$C14,I13*I$6))</f>
-        <v>130</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" ref="J14:J36" si="12">IF($C15&gt;0,"",IF($C14&gt;0,$C14,J13*J$6))</f>
-        <v>146.25</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" ref="K14:K36" si="13">IF($C15&gt;0,"",IF($C14&gt;0,$C14,K13*K$6))</f>
-        <v>162.5</v>
-      </c>
       <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <f t="shared" si="2"/>
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B15" s="9">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="19" t="str">
@@ -1166,39 +1137,39 @@
         <v>-</v>
       </c>
       <c r="F15" s="15">
-        <f t="shared" si="8"/>
-        <v>103.194</v>
+        <f t="shared" ref="F15:F37" si="8">IF($C16&gt;0,"",IF($C15&gt;0,$C15,F14*F$7))</f>
+        <v>81.900000000000006</v>
       </c>
       <c r="G15" s="15">
-        <f t="shared" si="9"/>
-        <v>113.256</v>
+        <f t="shared" ref="G15:G37" si="9">IF($C16&gt;0,"",IF($C15&gt;0,$C15,G14*G$7))</f>
+        <v>85.8</v>
       </c>
       <c r="H15" s="15">
-        <f t="shared" si="10"/>
-        <v>130.14462500000002</v>
+        <f t="shared" ref="H15:H37" si="10">IF($C16&gt;0,"",IF($C15&gt;0,$C15,H14*H$7))</f>
+        <v>91.975000000000009</v>
       </c>
       <c r="I15" s="15">
-        <f t="shared" si="11"/>
-        <v>260</v>
+        <f t="shared" ref="I15:I37" si="11">IF($C16&gt;0,"",IF($C15&gt;0,$C15,I14*I$7))</f>
+        <v>130</v>
       </c>
       <c r="J15" s="15">
-        <f t="shared" si="12"/>
-        <v>329.0625</v>
+        <f t="shared" ref="J15:J37" si="12">IF($C16&gt;0,"",IF($C15&gt;0,$C15,J14*J$7))</f>
+        <v>146.25</v>
       </c>
       <c r="K15" s="15">
-        <f t="shared" si="13"/>
-        <v>406.25</v>
+        <f t="shared" ref="K15:K37" si="13">IF($C16&gt;0,"",IF($C15&gt;0,$C15,K14*K$7))</f>
+        <v>162.5</v>
       </c>
       <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <f t="shared" si="2"/>
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B16" s="9">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="19" t="str">
@@ -1211,126 +1182,126 @@
       </c>
       <c r="F16" s="15">
         <f t="shared" si="8"/>
-        <v>130.02444</v>
+        <v>103.194</v>
       </c>
       <c r="G16" s="15">
         <f t="shared" si="9"/>
-        <v>149.49791999999999</v>
+        <v>113.256</v>
       </c>
       <c r="H16" s="15">
         <f t="shared" si="10"/>
-        <v>184.15464437500003</v>
+        <v>130.14462500000002</v>
       </c>
       <c r="I16" s="15">
         <f t="shared" si="11"/>
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="J16" s="15">
         <f t="shared" si="12"/>
-        <v>740.390625</v>
+        <v>329.0625</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="13"/>
-        <v>1015.625</v>
+        <v>406.25</v>
       </c>
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <f t="shared" si="2"/>
+        <v>43909</v>
+      </c>
+      <c r="B17" s="9">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="E17" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="8"/>
+        <v>130.02444</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="9"/>
+        <v>149.49791999999999</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="10"/>
+        <v>184.15464437500003</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="11"/>
+        <v>520</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="12"/>
+        <v>740.390625</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="13"/>
+        <v>1015.625</v>
+      </c>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <f t="shared" si="2"/>
         <v>43910</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B18" s="26">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28" t="str">
+      <c r="C18" s="27"/>
+      <c r="D18" s="28" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="E17" s="29" t="str">
+      <c r="E18" s="29" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F18" s="30">
         <f t="shared" si="8"/>
         <v>163.8307944</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G18" s="30">
         <f t="shared" si="9"/>
         <v>197.33725440000001</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H18" s="30">
         <f t="shared" si="10"/>
         <v>260.57882179062506</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I18" s="30">
         <f t="shared" si="11"/>
         <v>1040</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J18" s="30">
         <f t="shared" si="12"/>
         <v>1665.87890625</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K18" s="30">
         <f t="shared" si="13"/>
         <v>2539.0625</v>
       </c>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
-        <f t="shared" si="2"/>
-        <v>43911</v>
-      </c>
-      <c r="B18" s="10">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="E18" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="F18" s="23">
-        <f t="shared" si="8"/>
-        <v>206.42680094400001</v>
-      </c>
-      <c r="G18" s="23">
-        <f t="shared" si="9"/>
-        <v>260.48517580800001</v>
-      </c>
-      <c r="H18" s="23">
-        <f t="shared" si="10"/>
-        <v>368.71903283373445</v>
-      </c>
-      <c r="I18" s="23">
-        <f t="shared" si="11"/>
-        <v>2080</v>
-      </c>
-      <c r="J18" s="23">
-        <f t="shared" si="12"/>
-        <v>3748.2275390625</v>
-      </c>
-      <c r="K18" s="23">
-        <f t="shared" si="13"/>
-        <v>6347.65625</v>
-      </c>
       <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <f t="shared" si="2"/>
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B19" s="10">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="20" t="str">
@@ -1343,82 +1314,82 @@
       </c>
       <c r="F19" s="23">
         <f t="shared" si="8"/>
-        <v>260.09776918943999</v>
+        <v>206.42680094400001</v>
       </c>
       <c r="G19" s="23">
         <f t="shared" si="9"/>
-        <v>343.84043206656003</v>
+        <v>260.48517580800001</v>
       </c>
       <c r="H19" s="23">
         <f t="shared" si="10"/>
-        <v>521.73743145973424</v>
+        <v>368.71903283373445</v>
       </c>
       <c r="I19" s="23">
         <f t="shared" si="11"/>
-        <v>4160</v>
+        <v>2080</v>
       </c>
       <c r="J19" s="23">
         <f t="shared" si="12"/>
-        <v>8433.511962890625</v>
+        <v>3748.2275390625</v>
       </c>
       <c r="K19" s="23">
         <f t="shared" si="13"/>
+        <v>6347.65625</v>
+      </c>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="24">
+        <f t="shared" si="2"/>
+        <v>43912</v>
+      </c>
+      <c r="B20" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="E20" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="F20" s="23">
+        <f t="shared" si="8"/>
+        <v>260.09776918943999</v>
+      </c>
+      <c r="G20" s="23">
+        <f t="shared" si="9"/>
+        <v>343.84043206656003</v>
+      </c>
+      <c r="H20" s="23">
+        <f t="shared" si="10"/>
+        <v>521.73743145973424</v>
+      </c>
+      <c r="I20" s="23">
+        <f t="shared" si="11"/>
+        <v>4160</v>
+      </c>
+      <c r="J20" s="23">
+        <f t="shared" si="12"/>
+        <v>8433.511962890625</v>
+      </c>
+      <c r="K20" s="23">
+        <f t="shared" si="13"/>
         <v>15869.140625</v>
-      </c>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
-        <f t="shared" si="2"/>
-        <v>43913</v>
-      </c>
-      <c r="B20" s="9">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="E20" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="F20" s="15">
-        <f t="shared" si="8"/>
-        <v>327.72318917869438</v>
-      </c>
-      <c r="G20" s="15">
-        <f t="shared" si="9"/>
-        <v>453.86937032785926</v>
-      </c>
-      <c r="H20" s="15">
-        <f t="shared" si="10"/>
-        <v>738.25846551552399</v>
-      </c>
-      <c r="I20" s="15">
-        <f t="shared" si="11"/>
-        <v>8320</v>
-      </c>
-      <c r="J20" s="15">
-        <f t="shared" si="12"/>
-        <v>18975.401916503906</v>
-      </c>
-      <c r="K20" s="15">
-        <f t="shared" si="13"/>
-        <v>39672.8515625</v>
       </c>
       <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <f t="shared" si="2"/>
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B21" s="9">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="19" t="str">
@@ -1431,38 +1402,38 @@
       </c>
       <c r="F21" s="15">
         <f t="shared" si="8"/>
-        <v>412.9312183651549</v>
+        <v>327.72318917869438</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" si="9"/>
-        <v>599.10756883277429</v>
+        <v>453.86937032785926</v>
       </c>
       <c r="H21" s="15">
         <f t="shared" si="10"/>
-        <v>1044.6357287044664</v>
+        <v>738.25846551552399</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="11"/>
-        <v>16640</v>
+        <v>8320</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="12"/>
-        <v>42694.654312133789</v>
+        <v>18975.401916503906</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="13"/>
-        <v>99182.12890625</v>
+        <v>39672.8515625</v>
       </c>
       <c r="N21" s="11"/>
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <f t="shared" si="2"/>
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B22" s="9">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="19" t="str">
@@ -1475,38 +1446,38 @@
       </c>
       <c r="F22" s="15">
         <f t="shared" si="8"/>
-        <v>520.29333514009522</v>
+        <v>412.9312183651549</v>
       </c>
       <c r="G22" s="15">
         <f t="shared" si="9"/>
-        <v>790.82199085926209</v>
+        <v>599.10756883277429</v>
       </c>
       <c r="H22" s="15">
         <f t="shared" si="10"/>
-        <v>1478.1595561168199</v>
+        <v>1044.6357287044664</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="11"/>
-        <v>33280</v>
+        <v>16640</v>
       </c>
       <c r="J22" s="15">
         <f t="shared" si="12"/>
-        <v>96062.972202301025</v>
+        <v>42694.654312133789</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="13"/>
-        <v>247955.322265625</v>
+        <v>99182.12890625</v>
       </c>
       <c r="N22" s="11"/>
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <f t="shared" si="2"/>
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B23" s="9">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="19" t="str">
@@ -1519,126 +1490,126 @@
       </c>
       <c r="F23" s="15">
         <f t="shared" si="8"/>
-        <v>655.56960227651996</v>
+        <v>520.29333514009522</v>
       </c>
       <c r="G23" s="15">
         <f t="shared" si="9"/>
-        <v>1043.8850279342259</v>
+        <v>790.82199085926209</v>
       </c>
       <c r="H23" s="15">
         <f t="shared" si="10"/>
-        <v>2091.5957719053004</v>
+        <v>1478.1595561168199</v>
       </c>
       <c r="I23" s="15">
         <f t="shared" si="11"/>
-        <v>66560</v>
+        <v>33280</v>
       </c>
       <c r="J23" s="15">
         <f t="shared" si="12"/>
-        <v>216141.68745517731</v>
+        <v>96062.972202301025</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="13"/>
-        <v>619888.3056640625</v>
+        <v>247955.322265625</v>
       </c>
       <c r="N23" s="11"/>
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <f t="shared" si="2"/>
+        <v>43916</v>
+      </c>
+      <c r="B24" s="9">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="E24" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="8"/>
+        <v>655.56960227651996</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="9"/>
+        <v>1043.8850279342259</v>
+      </c>
+      <c r="H24" s="15">
+        <f t="shared" si="10"/>
+        <v>2091.5957719053004</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="11"/>
+        <v>66560</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="12"/>
+        <v>216141.68745517731</v>
+      </c>
+      <c r="K24" s="15">
+        <f t="shared" si="13"/>
+        <v>619888.3056640625</v>
+      </c>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <f t="shared" si="2"/>
         <v>43917</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B25" s="26">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28" t="str">
+      <c r="C25" s="27"/>
+      <c r="D25" s="28" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="E24" s="29" t="str">
+      <c r="E25" s="29" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F25" s="30">
         <f t="shared" si="8"/>
         <v>826.01769886841521</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G25" s="30">
         <f t="shared" si="9"/>
         <v>1377.9282368731783</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H25" s="30">
         <f t="shared" si="10"/>
         <v>2959.6080172460001</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I25" s="30">
         <f t="shared" si="11"/>
         <v>133120</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J25" s="30">
         <f t="shared" si="12"/>
         <v>486318.79677414894</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K25" s="30">
         <f t="shared" si="13"/>
         <v>1549720.7641601562</v>
       </c>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24">
-        <f t="shared" si="2"/>
-        <v>43918</v>
-      </c>
-      <c r="B25" s="10">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="20" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="E25" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="F25" s="23">
-        <f t="shared" si="8"/>
-        <v>1040.7823005742032</v>
-      </c>
-      <c r="G25" s="23">
-        <f t="shared" si="9"/>
-        <v>1818.8652726725954</v>
-      </c>
-      <c r="H25" s="23">
-        <f t="shared" si="10"/>
-        <v>4187.8453444030902</v>
-      </c>
-      <c r="I25" s="23">
-        <f t="shared" si="11"/>
-        <v>266240</v>
-      </c>
-      <c r="J25" s="23">
-        <f t="shared" si="12"/>
-        <v>1094217.2927418351</v>
-      </c>
-      <c r="K25" s="23">
-        <f t="shared" si="13"/>
-        <v>3874301.9104003906</v>
-      </c>
       <c r="N25" s="11"/>
     </row>
     <row r="26" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="24">
         <f t="shared" si="2"/>
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B26" s="10">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="20" t="str">
@@ -1651,81 +1622,82 @@
       </c>
       <c r="F26" s="23">
         <f t="shared" si="8"/>
-        <v>1311.385698723496</v>
+        <v>1040.7823005742032</v>
       </c>
       <c r="G26" s="23">
         <f t="shared" si="9"/>
-        <v>2400.9021599278262</v>
+        <v>1818.8652726725954</v>
       </c>
       <c r="H26" s="23">
         <f t="shared" si="10"/>
-        <v>5925.8011623303728</v>
+        <v>4187.8453444030902</v>
       </c>
       <c r="I26" s="23">
         <f t="shared" si="11"/>
-        <v>532480</v>
+        <v>266240</v>
       </c>
       <c r="J26" s="23">
         <f t="shared" si="12"/>
-        <v>2461988.908669129</v>
+        <v>1094217.2927418351</v>
       </c>
       <c r="K26" s="23">
         <f t="shared" si="13"/>
+        <v>3874301.9104003906</v>
+      </c>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="24">
+        <f t="shared" si="2"/>
+        <v>43919</v>
+      </c>
+      <c r="B27" s="10">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="E27" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="F27" s="23">
+        <f t="shared" si="8"/>
+        <v>1311.385698723496</v>
+      </c>
+      <c r="G27" s="23">
+        <f t="shared" si="9"/>
+        <v>2400.9021599278262</v>
+      </c>
+      <c r="H27" s="23">
+        <f t="shared" si="10"/>
+        <v>5925.8011623303728</v>
+      </c>
+      <c r="I27" s="23">
+        <f t="shared" si="11"/>
+        <v>532480</v>
+      </c>
+      <c r="J27" s="23">
+        <f t="shared" si="12"/>
+        <v>2461988.908669129</v>
+      </c>
+      <c r="K27" s="23">
+        <f t="shared" si="13"/>
         <v>9685754.7760009766</v>
       </c>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
-        <f t="shared" si="2"/>
-        <v>43920</v>
-      </c>
-      <c r="B27" s="9">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="E27" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="F27" s="15">
-        <f t="shared" si="8"/>
-        <v>1652.3459803916051</v>
-      </c>
-      <c r="G27" s="15">
-        <f t="shared" si="9"/>
-        <v>3169.1908511047309</v>
-      </c>
-      <c r="H27" s="15">
-        <f t="shared" si="10"/>
-        <v>8385.0086446974783</v>
-      </c>
-      <c r="I27" s="15">
-        <f t="shared" si="11"/>
-        <v>1064960</v>
-      </c>
-      <c r="J27" s="15">
-        <f t="shared" si="12"/>
-        <v>5539475.0445055403</v>
-      </c>
-      <c r="K27" s="15">
-        <f t="shared" si="13"/>
-        <v>24214386.940002441</v>
-      </c>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <f t="shared" si="2"/>
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B28" s="9">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="19" t="str">
@@ -1738,96 +1710,99 @@
       </c>
       <c r="F28" s="15">
         <f t="shared" si="8"/>
-        <v>2081.9559352934225</v>
+        <v>1652.3459803916051</v>
       </c>
       <c r="G28" s="15">
         <f t="shared" si="9"/>
-        <v>4183.331923458245</v>
+        <v>3169.1908511047309</v>
       </c>
       <c r="H28" s="15">
         <f t="shared" si="10"/>
-        <v>11864.787232246932</v>
+        <v>8385.0086446974783</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" si="11"/>
-        <v>2129920</v>
-      </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
+        <v>1064960</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="12"/>
+        <v>5539475.0445055403</v>
+      </c>
+      <c r="K28" s="15">
+        <f t="shared" si="13"/>
+        <v>24214386.940002441</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <f t="shared" si="2"/>
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B29" s="9">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="19" t="str">
-        <f t="shared" ref="D29:D36" si="14">IF(C29&gt;0,C29/C28,"-")</f>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E29" s="17" t="str">
-        <f t="shared" ref="E29:E36" si="15">IF(C29&gt;0,(C29/C$7)^(1/B29),"-")</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="8"/>
-        <v>2623.2644784697122</v>
+        <v>2081.9559352934225</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="9"/>
-        <v>5521.9981389648838</v>
+        <v>4183.331923458245</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="10"/>
-        <v>16788.673933629409</v>
+        <v>11864.787232246932</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="11"/>
-        <v>4259840</v>
+        <v>2129920</v>
       </c>
       <c r="J29" s="15"/>
-      <c r="K29" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <f t="shared" si="2"/>
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B30" s="9">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="D30:D37" si="14">IF(C30&gt;0,C30/C29,"-")</f>
         <v>-</v>
       </c>
       <c r="E30" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="E30:E37" si="15">IF(C30&gt;0,(C30/C$8)^(1/B30),"-")</f>
         <v>-</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="8"/>
-        <v>3305.3132428718372</v>
+        <v>2623.2644784697122</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="9"/>
-        <v>7289.0375434336465</v>
+        <v>5521.9981389648838</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" si="10"/>
-        <v>23755.973616085616</v>
+        <v>16788.673933629409</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="11"/>
-        <v>8519680</v>
+        <v>4259840</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15">
@@ -1838,11 +1813,11 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <f t="shared" si="2"/>
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B31" s="9">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="19" t="str">
@@ -1855,68 +1830,65 @@
       </c>
       <c r="F31" s="15">
         <f t="shared" si="8"/>
-        <v>4164.6946860185153</v>
+        <v>3305.3132428718372</v>
       </c>
       <c r="G31" s="15">
         <f t="shared" si="9"/>
-        <v>9621.5295573324147</v>
+        <v>7289.0375434336465</v>
       </c>
       <c r="H31" s="15">
         <f t="shared" si="10"/>
-        <v>33614.70266676115</v>
+        <v>23755.973616085616</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" si="11"/>
-        <v>17039360</v>
-      </c>
-      <c r="J31" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+        <v>8519680</v>
+      </c>
+      <c r="J31" s="15"/>
       <c r="K31" s="15">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="24">
-        <f t="shared" si="2"/>
-        <v>43925</v>
-      </c>
-      <c r="B32" s="10">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="20" t="str">
+      <c r="A32" s="13">
+        <f t="shared" si="2"/>
+        <v>43924</v>
+      </c>
+      <c r="B32" s="9">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="19" t="str">
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="E32" s="18" t="str">
+      <c r="E32" s="17" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="15">
         <f t="shared" si="8"/>
-        <v>5247.5153043833297</v>
-      </c>
-      <c r="G32" s="23">
+        <v>4164.6946860185153</v>
+      </c>
+      <c r="G32" s="15">
         <f t="shared" si="9"/>
-        <v>12700.419015678788</v>
-      </c>
-      <c r="H32" s="23">
+        <v>9621.5295573324147</v>
+      </c>
+      <c r="H32" s="15">
         <f t="shared" si="10"/>
-        <v>47564.804273467031</v>
-      </c>
-      <c r="I32" s="23">
+        <v>33614.70266676115</v>
+      </c>
+      <c r="I32" s="15">
         <f t="shared" si="11"/>
-        <v>34078720</v>
-      </c>
-      <c r="J32" s="23">
+        <v>17039360</v>
+      </c>
+      <c r="J32" s="15">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="15">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -1924,11 +1896,11 @@
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="24">
         <f t="shared" si="2"/>
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B33" s="10">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="20" t="str">
@@ -1941,19 +1913,19 @@
       </c>
       <c r="F33" s="23">
         <f t="shared" si="8"/>
-        <v>6611.8692835229958</v>
+        <v>5247.5153043833297</v>
       </c>
       <c r="G33" s="23">
         <f t="shared" si="9"/>
-        <v>16764.553100696001</v>
+        <v>12700.419015678788</v>
       </c>
       <c r="H33" s="23">
         <f t="shared" si="10"/>
-        <v>67304.198046955848</v>
+        <v>47564.804273467031</v>
       </c>
       <c r="I33" s="23">
         <f t="shared" si="11"/>
-        <v>68157440</v>
+        <v>34078720</v>
       </c>
       <c r="J33" s="23">
         <f t="shared" si="12"/>
@@ -1965,44 +1937,44 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
-        <f t="shared" si="2"/>
-        <v>43927</v>
-      </c>
-      <c r="B34" s="9">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="19" t="str">
+      <c r="A34" s="24">
+        <f t="shared" si="2"/>
+        <v>43926</v>
+      </c>
+      <c r="B34" s="10">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="20" t="str">
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="E34" s="17" t="str">
+      <c r="E34" s="18" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="23">
         <f t="shared" si="8"/>
-        <v>8330.9552972389756</v>
-      </c>
-      <c r="G34" s="15">
+        <v>6611.8692835229958</v>
+      </c>
+      <c r="G34" s="23">
         <f t="shared" si="9"/>
-        <v>22129.210092918722</v>
-      </c>
-      <c r="H34" s="15">
+        <v>16764.553100696001</v>
+      </c>
+      <c r="H34" s="23">
         <f t="shared" si="10"/>
-        <v>95235.440236442533</v>
-      </c>
-      <c r="I34" s="15">
+        <v>67304.198046955848</v>
+      </c>
+      <c r="I34" s="23">
         <f t="shared" si="11"/>
-        <v>136314880</v>
-      </c>
-      <c r="J34" s="15">
+        <v>68157440</v>
+      </c>
+      <c r="J34" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="23">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -2010,11 +1982,11 @@
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <f t="shared" si="2"/>
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B35" s="9">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="19" t="str">
@@ -2027,19 +1999,19 @@
       </c>
       <c r="F35" s="15">
         <f t="shared" si="8"/>
-        <v>10497.003674521109</v>
+        <v>8330.9552972389756</v>
       </c>
       <c r="G35" s="15">
         <f t="shared" si="9"/>
-        <v>29210.557322652716</v>
+        <v>22129.210092918722</v>
       </c>
       <c r="H35" s="15">
         <f t="shared" si="10"/>
-        <v>134758.14793456619</v>
+        <v>95235.440236442533</v>
       </c>
       <c r="I35" s="15">
         <f t="shared" si="11"/>
-        <v>272629760</v>
+        <v>136314880</v>
       </c>
       <c r="J35" s="15">
         <f t="shared" si="12"/>
@@ -2053,11 +2025,11 @@
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <f t="shared" si="2"/>
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B36" s="9">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="19" t="str">
@@ -2070,19 +2042,19 @@
       </c>
       <c r="F36" s="15">
         <f t="shared" si="8"/>
-        <v>13226.224629896598</v>
+        <v>10497.003674521109</v>
       </c>
       <c r="G36" s="15">
         <f t="shared" si="9"/>
-        <v>38557.93566590159</v>
+        <v>29210.557322652716</v>
       </c>
       <c r="H36" s="15">
         <f t="shared" si="10"/>
-        <v>190682.77932741118</v>
+        <v>134758.14793456619</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="11"/>
-        <v>545259520</v>
+        <v>272629760</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="12"/>
@@ -2094,22 +2066,66 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I37" s="36" t="s">
+      <c r="A37" s="13">
+        <f t="shared" si="2"/>
+        <v>43929</v>
+      </c>
+      <c r="B37" s="9">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>-</v>
+      </c>
+      <c r="E37" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>-</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="8"/>
+        <v>13226.224629896598</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="9"/>
+        <v>38557.93566590159</v>
+      </c>
+      <c r="H37" s="15">
+        <f t="shared" si="10"/>
+        <v>190682.77932741118</v>
+      </c>
+      <c r="I37" s="15">
+        <f t="shared" si="11"/>
+        <v>545259520</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I38" s="31" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{2292755E-4A57-7F4A-A82A-DB7B77463A1F}"/>
     <hyperlink ref="E1" r:id="rId2" xr:uid="{0E58AA60-FFAC-BE4B-A2C7-C47DF534A29E}"/>
     <hyperlink ref="E2" r:id="rId3" xr:uid="{FC96D1CA-8297-AB4D-ACEA-B179A9B8F149}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{A34D47C1-6D2E-0847-8F43-1C834FECEE3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
